--- a/output_ranked.xlsx
+++ b/output_ranked.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S667"/>
+  <dimension ref="A1:S666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41185,27 +41185,6 @@
       <c r="R666" t="inlineStr"/>
       <c r="S666" t="inlineStr"/>
     </row>
-    <row r="667">
-      <c r="A667" s="1" t="inlineStr"/>
-      <c r="B667" t="inlineStr"/>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr"/>
-      <c r="H667" t="inlineStr"/>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
-      <c r="M667" t="inlineStr"/>
-      <c r="N667" t="inlineStr"/>
-      <c r="O667" t="inlineStr"/>
-      <c r="P667" t="inlineStr"/>
-      <c r="Q667" t="inlineStr"/>
-      <c r="R667" t="inlineStr"/>
-      <c r="S667" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
